--- a/pred_ohlcv/54_21/2019-10-30 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-40.07331137999992</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>146.7510886200001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>109.6449886200001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-58.36643960999998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-58.36643960999998</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-11.93243719999998</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-1144.07888856</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1147.45588856</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1147.45588856</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-1151.82218856</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1156.82218856</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1118.05268856</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1118.05268856</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1086.97918856</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-1082.17918856</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-1072.53688856</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-1067.79084172</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-1067.79084172</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-1067.79084172</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-1046.09094172</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-1017.74914172</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-1017.74914172</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1047.70234172</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-1024.30514172</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-1024.30514172</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-1024.30514172</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-1023.57884172</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-1064.51254172</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-1066.86994172</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-1047.95344172</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-1092.98294172</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-1097.47104172</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-1096.99064172</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-1098.99064172</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-1112.85284172</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1126.11234172</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1146.69144172</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1180.03174172</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1195.23074172</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1195.23074172</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1161.495741720001</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1174.62294172</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1199.359941720001</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1198.810641720001</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1197.801941720001</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1197.801941720001</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1221.740341720001</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1253.740341720001</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1297.450041720001</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1297.746641720001</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1297.746641720001</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1321.289241720001</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1334.71434172</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1409.13714172</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1477.366941720001</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1398.98874172</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1278.08914172</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1246.499941720001</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1082.98594172</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1159.723041720001</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1010.79884172</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1105.692941720001</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1148.395741720001</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1128.939041720001</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1818.876963379999</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1147.544376019999</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1536.195225199999</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2081.138839839999</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1640.621645069999</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>964.9702871099989</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-354.4662562000011</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-423.8592562000011</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-232.3885562000011</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-190.3754562000011</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-128.7075562000011</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>18.93794379999886</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-209.8955382900011</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-117.7853382900011</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-269.7786382900011</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-238.4232382900011</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-226.0837382900012</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-347.8297570700012</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-440.2764856400012</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-499.3457856400012</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-382.8522875000012</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-398.0961875000012</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-520.5432875000012</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-2649.25946345</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-2351.37536345</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-2261.52886345</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-1988.13786345</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-1885.54556345</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-2350.31036345</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-2378.64866345</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-2418.35096345</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-2415.37386345</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-2316.706063449999</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-2150.501663449999</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-1889.543265099999</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-1074.144604119999</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-1074.144604119999</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-1163.75500412</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-1163.75500412</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-1214.514404119999</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-1201.749404119999</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-1225.843290309999</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-1545.139231799999</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-1191.54227114</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-1377.98907114</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-1371.19797114</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-1313.78467114</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1230" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 BCH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-40.07331137999992</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>146.7510886200001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>109.6449886200001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>109.6449886200001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>24.72300068000008</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24.72300068000008</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>66.17030068000008</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>99.21400068000008</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>203.6557006800001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1297.746641720001</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1321.289241720001</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1334.71434172</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1409.13714172</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1477.366941720001</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1398.98874172</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1278.08914172</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1246.499941720001</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1082.98594172</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>1818.876963379999</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>1147.544376019999</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>1536.195225199999</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2081.138839839999</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>1640.621645069999</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>964.9702871099989</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>247.3605029499989</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-354.4662562000011</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-423.8592562000011</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-128.7075562000011</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>18.93794379999886</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-209.8955382900011</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-117.7853382900011</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-269.7786382900011</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-238.4232382900011</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-226.0837382900012</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-347.8297570700012</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-448.6861856400012</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-440.2764856400012</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-382.8522875000012</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-1444.6696988</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-1582.7041988</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-1573.7710988</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-1498.9171988</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-1497.5175988</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-1988.13786345</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-1885.54556345</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-2154.41106345</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-1781.420768689999</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-1782.173568689999</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-1753.61716869</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-1824.762168689999</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-1821.80556869</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-1821.80556869</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-1806.26869556</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-1806.26869556</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-1762.253832489999</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-1779.33403249</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-1779.33403249</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-1801.84043249</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-1869.24063249</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-1869.24063249</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-1979.40723249</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-1957.04903249</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-1948.07303249</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-1908.66763249</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-2053.65573249</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-1981.01353249</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-1937.5232819</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-1735.221920279999</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-1762.05682028</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-1807.23052028</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-1765.85502028</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-1743.74775391</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-1763.47665391</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-1761.8112163</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-1753.8699163</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-1635.4271163</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-1387.06150104</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-1074.144604119999</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-1074.144604119999</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-1163.75500412</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-1163.75500412</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-1214.514404119999</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-1201.749404119999</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-1225.843290309999</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-1545.139231799999</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-1191.54227114</v>
       </c>
       <c r="H1226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-1377.98907114</v>
       </c>
       <c r="H1227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-1371.19797114</v>
       </c>
       <c r="H1228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-1313.78467114</v>
       </c>
       <c r="H1229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
